--- a/biology/Médecine/Mansour_ibn_Ilyas/Mansour_ibn_Ilyas.xlsx
+++ b/biology/Médecine/Mansour_ibn_Ilyas/Mansour_ibn_Ilyas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Mansur ibn Muhammad ibn Ahmad ibn Ilyas Ibn Yusuf (en arabe  منصور ابن محمد ابن احمد ابن يوسف ابن الياس) était un médecin et érudit de la fin du XIVe siècle originaire de Chiraz en Iran, sous l’empire timuride. 
 Mansour était issu d'une famille de lettrés et de médecins ayant exercé pendant plusieurs générations dans la ville de Chiraz. Il a dédié deux de ses principaux ouvrages médicaux, une encyclopédie de médecine générale et une étude de l'anatomie, aux dirigeants de la province perse de Fars. 
